--- a/MPM/需求资料/24年MPM优化功能.xlsx
+++ b/MPM/需求资料/24年MPM优化功能.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId2"/>
+    <sheet name="2024" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -722,12 +724,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1297,176 +1296,176 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" ht="16.5" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="66" customHeight="1" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="52" customHeight="1" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="80" customHeight="1" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:2">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" ht="33" spans="1:2">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" ht="16.5" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" ht="16.5" spans="1:2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" ht="16.5" spans="1:2">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" ht="16.5" spans="1:2">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" ht="16.5" spans="1:2">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" ht="16.5" spans="1:2">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" ht="16.5" spans="1:2">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" ht="16.5" spans="1:2">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" ht="16.5" spans="1:2">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" ht="16.5" spans="1:2">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="16.5" spans="1:2">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="16.5" spans="1:2">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" ht="16.5" spans="1:2">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" ht="16.5" spans="1:2">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1475,4 +1474,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>